--- a/差异/合并表格/20240705与20240704.xlsx
+++ b/差异/合并表格/20240705与20240704.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\python\bilibili日V周刊\差异\合并表格\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED2D24-72BF-4ECB-A83B-CB7008224DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DB431A-FA89-4D51-9E0A-789E7F8CF05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6242" uniqueCount="3841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6243" uniqueCount="3842">
   <si>
     <t>title</t>
   </si>
@@ -11543,13 +11543,17 @@
   </si>
   <si>
     <t>2016-12-30 21:07:20</t>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11570,6 +11574,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -11579,7 +11590,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -11602,13 +11613,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -11913,10 +11938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X623"/>
+  <dimension ref="A1:Y623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11940,7 +11965,7 @@
     <col min="23" max="24" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12013,8 +12038,11 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="2" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -12087,8 +12115,11 @@
       <c r="X2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -12161,8 +12192,11 @@
       <c r="X3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -12235,8 +12269,11 @@
       <c r="X4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -12309,8 +12346,11 @@
       <c r="X5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -12383,8 +12423,11 @@
       <c r="X6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -12457,8 +12500,11 @@
       <c r="X7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -12531,8 +12577,11 @@
       <c r="X8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -12605,8 +12654,11 @@
       <c r="X9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -12679,8 +12731,11 @@
       <c r="X10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -12753,8 +12808,11 @@
       <c r="X11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -12827,8 +12885,11 @@
       <c r="X12">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -12901,8 +12962,11 @@
       <c r="X13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -12975,8 +13039,11 @@
       <c r="X14">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -13049,8 +13116,11 @@
       <c r="X15">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -13123,8 +13193,11 @@
       <c r="X16">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -13197,8 +13270,11 @@
       <c r="X17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -13271,8 +13347,11 @@
       <c r="X18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>159</v>
       </c>
@@ -13345,8 +13424,11 @@
       <c r="X19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -13419,8 +13501,11 @@
       <c r="X20">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -13493,8 +13578,11 @@
       <c r="X21">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>183</v>
       </c>
@@ -13567,8 +13655,11 @@
       <c r="X22">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>190</v>
       </c>
@@ -13641,8 +13732,11 @@
       <c r="X23">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -13715,8 +13809,11 @@
       <c r="X24">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -13789,8 +13886,11 @@
       <c r="X25">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>216</v>
       </c>
@@ -13863,8 +13963,11 @@
       <c r="X26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -13937,8 +14040,11 @@
       <c r="X27">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -14011,8 +14117,11 @@
       <c r="X28">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>240</v>
       </c>
@@ -14085,8 +14194,11 @@
       <c r="X29">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>246</v>
       </c>
@@ -14159,8 +14271,11 @@
       <c r="X30">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>253</v>
       </c>
@@ -14233,8 +14348,11 @@
       <c r="X31">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>262</v>
       </c>
@@ -14307,8 +14425,11 @@
       <c r="X32">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>269</v>
       </c>
@@ -14381,8 +14502,11 @@
       <c r="X33">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>274</v>
       </c>
@@ -14455,8 +14579,11 @@
       <c r="X34">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -14529,8 +14656,11 @@
       <c r="X35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>290</v>
       </c>
@@ -14603,8 +14733,11 @@
       <c r="X36">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>296</v>
       </c>
@@ -14677,8 +14810,11 @@
       <c r="X37">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>303</v>
       </c>
@@ -14751,8 +14887,11 @@
       <c r="X38">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>312</v>
       </c>
@@ -14825,8 +14964,11 @@
       <c r="X39">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>320</v>
       </c>
@@ -14899,8 +15041,11 @@
       <c r="X40">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>327</v>
       </c>
@@ -14973,8 +15118,11 @@
       <c r="X41">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>335</v>
       </c>
@@ -15047,8 +15195,11 @@
       <c r="X42">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>342</v>
       </c>
@@ -15121,8 +15272,11 @@
       <c r="X43">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>348</v>
       </c>
@@ -15195,8 +15349,11 @@
       <c r="X44">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>356</v>
       </c>
@@ -15269,8 +15426,11 @@
       <c r="X45">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>363</v>
       </c>
@@ -15343,8 +15503,11 @@
       <c r="X46">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>369</v>
       </c>
@@ -15417,8 +15580,11 @@
       <c r="X47">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>376</v>
       </c>
@@ -15491,8 +15657,11 @@
       <c r="X48">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>382</v>
       </c>
@@ -15565,8 +15734,11 @@
       <c r="X49">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>391</v>
       </c>
@@ -15639,8 +15811,11 @@
       <c r="X50">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>398</v>
       </c>
@@ -15713,8 +15888,11 @@
       <c r="X51">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>406</v>
       </c>
@@ -15787,8 +15965,11 @@
       <c r="X52">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>413</v>
       </c>
@@ -15861,8 +16042,11 @@
       <c r="X53">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>419</v>
       </c>
@@ -15935,8 +16119,11 @@
       <c r="X54">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>426</v>
       </c>
@@ -16009,8 +16196,11 @@
       <c r="X55">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>434</v>
       </c>
@@ -16083,8 +16273,11 @@
       <c r="X56">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>441</v>
       </c>
@@ -16157,8 +16350,11 @@
       <c r="X57">
         <v>86</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>448</v>
       </c>
@@ -16231,8 +16427,11 @@
       <c r="X58">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>455</v>
       </c>
@@ -16305,8 +16504,11 @@
       <c r="X59">
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>461</v>
       </c>
@@ -16379,8 +16581,11 @@
       <c r="X60">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>469</v>
       </c>
@@ -16453,8 +16658,11 @@
       <c r="X61">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>475</v>
       </c>
@@ -16527,8 +16735,11 @@
       <c r="X62">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>482</v>
       </c>
@@ -16601,8 +16812,11 @@
       <c r="X63">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>490</v>
       </c>
@@ -16675,8 +16889,11 @@
       <c r="X64">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>498</v>
       </c>
@@ -16749,8 +16966,11 @@
       <c r="X65">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>505</v>
       </c>
@@ -16823,8 +17043,11 @@
       <c r="X66">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>513</v>
       </c>
@@ -16897,8 +17120,11 @@
       <c r="X67">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>520</v>
       </c>
@@ -16971,8 +17197,11 @@
       <c r="X68">
         <v>86</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>526</v>
       </c>
@@ -17045,8 +17274,11 @@
       <c r="X69">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>531</v>
       </c>
@@ -17119,8 +17351,11 @@
       <c r="X70">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>538</v>
       </c>
@@ -17193,8 +17428,11 @@
       <c r="X71">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>544</v>
       </c>
@@ -17267,8 +17505,11 @@
       <c r="X72">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>551</v>
       </c>
@@ -17341,8 +17582,11 @@
       <c r="X73">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>560</v>
       </c>
@@ -17415,8 +17659,11 @@
       <c r="X74">
         <v>90</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>568</v>
       </c>
@@ -17489,8 +17736,11 @@
       <c r="X75">
         <v>102</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>576</v>
       </c>
@@ -17563,8 +17813,11 @@
       <c r="X76">
         <v>104</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>583</v>
       </c>
@@ -17637,8 +17890,11 @@
       <c r="X77">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>590</v>
       </c>
@@ -17711,8 +17967,11 @@
       <c r="X78">
         <v>89</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>597</v>
       </c>
@@ -17785,8 +18044,11 @@
       <c r="X79">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>605</v>
       </c>
@@ -17859,8 +18121,11 @@
       <c r="X80">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>613</v>
       </c>
@@ -17933,8 +18198,11 @@
       <c r="X81">
         <v>88</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>622</v>
       </c>
@@ -18007,8 +18275,11 @@
       <c r="X82">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>630</v>
       </c>
@@ -18081,8 +18352,11 @@
       <c r="X83">
         <v>66</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>638</v>
       </c>
@@ -18155,8 +18429,11 @@
       <c r="X84">
         <v>118</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>644</v>
       </c>
@@ -18229,8 +18506,11 @@
       <c r="X85">
         <v>106</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>651</v>
       </c>
@@ -18303,8 +18583,11 @@
       <c r="X86">
         <v>55</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>658</v>
       </c>
@@ -18377,8 +18660,11 @@
       <c r="X87">
         <v>53</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>666</v>
       </c>
@@ -18451,8 +18737,11 @@
       <c r="X88">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>673</v>
       </c>
@@ -18525,8 +18814,11 @@
       <c r="X89">
         <v>115</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>682</v>
       </c>
@@ -18599,8 +18891,11 @@
       <c r="X90">
         <v>31</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>689</v>
       </c>
@@ -18673,8 +18968,11 @@
       <c r="X91">
         <v>82</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>696</v>
       </c>
@@ -18747,8 +19045,11 @@
       <c r="X92">
         <v>43</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>704</v>
       </c>
@@ -18821,8 +19122,11 @@
       <c r="X93">
         <v>123</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>711</v>
       </c>
@@ -18895,8 +19199,11 @@
       <c r="X94">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>718</v>
       </c>
@@ -18969,8 +19276,11 @@
       <c r="X95">
         <v>72</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>724</v>
       </c>
@@ -19043,8 +19353,11 @@
       <c r="X96">
         <v>123</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>733</v>
       </c>
@@ -19117,8 +19430,11 @@
       <c r="X97">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>741</v>
       </c>
@@ -19191,8 +19507,11 @@
       <c r="X98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>749</v>
       </c>
@@ -19265,8 +19584,11 @@
       <c r="X99">
         <v>29</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>755</v>
       </c>
@@ -19339,8 +19661,11 @@
       <c r="X100">
         <v>121</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>762</v>
       </c>
@@ -19413,8 +19738,11 @@
       <c r="X101">
         <v>60</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>770</v>
       </c>
@@ -19487,8 +19815,11 @@
       <c r="X102">
         <v>118</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>775</v>
       </c>
@@ -19561,8 +19892,11 @@
       <c r="X103">
         <v>113</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>782</v>
       </c>
@@ -19635,8 +19969,11 @@
       <c r="X104">
         <v>82</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>790</v>
       </c>
@@ -19709,8 +20046,11 @@
       <c r="X105">
         <v>118</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>797</v>
       </c>
@@ -19783,8 +20123,11 @@
       <c r="X106">
         <v>142</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>803</v>
       </c>
@@ -19857,8 +20200,11 @@
       <c r="X107">
         <v>131</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>811</v>
       </c>
@@ -19931,8 +20277,11 @@
       <c r="X108">
         <v>161</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>817</v>
       </c>
@@ -20005,8 +20354,11 @@
       <c r="X109">
         <v>122</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>823</v>
       </c>
@@ -20079,8 +20431,11 @@
       <c r="X110">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>829</v>
       </c>
@@ -20153,8 +20508,11 @@
       <c r="X111">
         <v>127</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>838</v>
       </c>
@@ -20227,8 +20585,11 @@
       <c r="X112">
         <v>80</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>846</v>
       </c>
@@ -20301,8 +20662,11 @@
       <c r="X113">
         <v>137</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>850</v>
       </c>
@@ -20375,8 +20739,11 @@
       <c r="X114">
         <v>104</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>858</v>
       </c>
@@ -20449,8 +20816,11 @@
       <c r="X115">
         <v>137</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>865</v>
       </c>
@@ -20523,8 +20893,11 @@
       <c r="X116">
         <v>123</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>872</v>
       </c>
@@ -20597,8 +20970,11 @@
       <c r="X117">
         <v>129</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>879</v>
       </c>
@@ -20671,8 +21047,11 @@
       <c r="X118">
         <v>62</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>887</v>
       </c>
@@ -20745,8 +21124,11 @@
       <c r="X119">
         <v>147</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>893</v>
       </c>
@@ -20819,8 +21201,11 @@
       <c r="X120">
         <v>94</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>899</v>
       </c>
@@ -20893,8 +21278,11 @@
       <c r="X121">
         <v>133</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>904</v>
       </c>
@@ -20967,8 +21355,11 @@
       <c r="X122">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>911</v>
       </c>
@@ -21041,8 +21432,11 @@
       <c r="X123">
         <v>167</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>919</v>
       </c>
@@ -21115,8 +21509,11 @@
       <c r="X124">
         <v>107</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>928</v>
       </c>
@@ -21189,8 +21586,11 @@
       <c r="X125">
         <v>133</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>937</v>
       </c>
@@ -21263,8 +21663,11 @@
       <c r="X126">
         <v>127</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>944</v>
       </c>
@@ -21337,8 +21740,11 @@
       <c r="X127">
         <v>47</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>950</v>
       </c>
@@ -21411,8 +21817,11 @@
       <c r="X128">
         <v>113</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>956</v>
       </c>
@@ -21485,8 +21894,11 @@
       <c r="X129">
         <v>110</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>963</v>
       </c>
@@ -21559,8 +21971,11 @@
       <c r="X130">
         <v>141</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>969</v>
       </c>
@@ -21633,8 +22048,11 @@
       <c r="X131">
         <v>116</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>976</v>
       </c>
@@ -21707,8 +22125,11 @@
       <c r="X132">
         <v>77</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>984</v>
       </c>
@@ -21781,8 +22202,11 @@
       <c r="X133">
         <v>161</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>991</v>
       </c>
@@ -21855,8 +22279,11 @@
       <c r="X134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>996</v>
       </c>
@@ -21929,8 +22356,11 @@
       <c r="X135">
         <v>171</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1003</v>
       </c>
@@ -22003,8 +22433,11 @@
       <c r="X136">
         <v>147</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1010</v>
       </c>
@@ -22077,8 +22510,11 @@
       <c r="X137">
         <v>158</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1017</v>
       </c>
@@ -22151,8 +22587,11 @@
       <c r="X138">
         <v>90</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1023</v>
       </c>
@@ -22225,8 +22664,11 @@
       <c r="X139">
         <v>150</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1029</v>
       </c>
@@ -22299,8 +22741,11 @@
       <c r="X140">
         <v>144</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1036</v>
       </c>
@@ -22373,8 +22818,11 @@
       <c r="X141">
         <v>167</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1043</v>
       </c>
@@ -22447,8 +22895,11 @@
       <c r="X142">
         <v>117</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1050</v>
       </c>
@@ -22521,8 +22972,11 @@
       <c r="X143">
         <v>186</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1059</v>
       </c>
@@ -22595,8 +23049,11 @@
       <c r="X144">
         <v>177</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1066</v>
       </c>
@@ -22669,8 +23126,11 @@
       <c r="X145">
         <v>131</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1072</v>
       </c>
@@ -22743,8 +23203,11 @@
       <c r="X146">
         <v>147</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1078</v>
       </c>
@@ -22817,8 +23280,11 @@
       <c r="X147">
         <v>186</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1084</v>
       </c>
@@ -22891,8 +23357,11 @@
       <c r="X148">
         <v>152</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1088</v>
       </c>
@@ -22965,8 +23434,11 @@
       <c r="X149">
         <v>191</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1096</v>
       </c>
@@ -23039,8 +23511,11 @@
       <c r="X150">
         <v>154</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1101</v>
       </c>
@@ -23113,8 +23588,11 @@
       <c r="X151">
         <v>151</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1107</v>
       </c>
@@ -23187,8 +23665,11 @@
       <c r="X152">
         <v>181</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1115</v>
       </c>
@@ -23261,8 +23742,11 @@
       <c r="X153">
         <v>71</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1122</v>
       </c>
@@ -23335,8 +23819,11 @@
       <c r="X154">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1129</v>
       </c>
@@ -23409,8 +23896,11 @@
       <c r="X155">
         <v>161</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1137</v>
       </c>
@@ -23483,8 +23973,11 @@
       <c r="X156">
         <v>99</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1143</v>
       </c>
@@ -23557,8 +24050,11 @@
       <c r="X157">
         <v>167</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1149</v>
       </c>
@@ -23631,8 +24127,11 @@
       <c r="X158">
         <v>143</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1155</v>
       </c>
@@ -23705,8 +24204,11 @@
       <c r="X159">
         <v>161</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1162</v>
       </c>
@@ -23779,8 +24281,11 @@
       <c r="X160">
         <v>154</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1168</v>
       </c>
@@ -23853,8 +24358,11 @@
       <c r="X161">
         <v>100</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1174</v>
       </c>
@@ -23927,8 +24435,11 @@
       <c r="X162">
         <v>171</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1180</v>
       </c>
@@ -24001,8 +24512,11 @@
       <c r="X163">
         <v>171</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1187</v>
       </c>
@@ -24075,8 +24589,11 @@
       <c r="X164">
         <v>158</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1193</v>
       </c>
@@ -24149,8 +24666,11 @@
       <c r="X165">
         <v>177</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1201</v>
       </c>
@@ -24223,8 +24743,11 @@
       <c r="X166">
         <v>167</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1208</v>
       </c>
@@ -24297,8 +24820,11 @@
       <c r="X167">
         <v>225</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1215</v>
       </c>
@@ -24371,8 +24897,11 @@
       <c r="X168">
         <v>144</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1222</v>
       </c>
@@ -24445,8 +24974,11 @@
       <c r="X169">
         <v>196</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1228</v>
       </c>
@@ -24519,8 +25051,11 @@
       <c r="X170">
         <v>171</v>
       </c>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1235</v>
       </c>
@@ -24593,8 +25128,11 @@
       <c r="X171">
         <v>182</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1242</v>
       </c>
@@ -24667,8 +25205,11 @@
       <c r="X172">
         <v>186</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1249</v>
       </c>
@@ -24741,8 +25282,11 @@
       <c r="X173">
         <v>154</v>
       </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1253</v>
       </c>
@@ -24815,8 +25359,11 @@
       <c r="X174">
         <v>177</v>
       </c>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1259</v>
       </c>
@@ -24889,8 +25436,11 @@
       <c r="X175">
         <v>102</v>
       </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1265</v>
       </c>
@@ -24963,8 +25513,11 @@
       <c r="X176">
         <v>191</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1273</v>
       </c>
@@ -25037,8 +25590,11 @@
       <c r="X177">
         <v>161</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1279</v>
       </c>
@@ -25111,8 +25667,11 @@
       <c r="X178">
         <v>213</v>
       </c>
-    </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1286</v>
       </c>
@@ -25185,8 +25744,11 @@
       <c r="X179">
         <v>200</v>
       </c>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1292</v>
       </c>
@@ -25259,8 +25821,11 @@
       <c r="X180">
         <v>200</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1298</v>
       </c>
@@ -25333,8 +25898,11 @@
       <c r="X181">
         <v>130</v>
       </c>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1306</v>
       </c>
@@ -25407,8 +25975,11 @@
       <c r="X182">
         <v>191</v>
       </c>
-    </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1312</v>
       </c>
@@ -25481,8 +26052,11 @@
       <c r="X183">
         <v>237</v>
       </c>
-    </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1319</v>
       </c>
@@ -25555,8 +26129,11 @@
       <c r="X184">
         <v>126</v>
       </c>
-    </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1325</v>
       </c>
@@ -25629,8 +26206,11 @@
       <c r="X185">
         <v>154</v>
       </c>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1332</v>
       </c>
@@ -25703,8 +26283,11 @@
       <c r="X186">
         <v>200</v>
       </c>
-    </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1338</v>
       </c>
@@ -25777,8 +26360,11 @@
       <c r="X187">
         <v>171</v>
       </c>
-    </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1346</v>
       </c>
@@ -25851,8 +26437,11 @@
       <c r="X188">
         <v>264</v>
       </c>
-    </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1353</v>
       </c>
@@ -25925,8 +26514,11 @@
       <c r="X189">
         <v>200</v>
       </c>
-    </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1359</v>
       </c>
@@ -25999,8 +26591,11 @@
       <c r="X190">
         <v>186</v>
       </c>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1365</v>
       </c>
@@ -26073,8 +26668,11 @@
       <c r="X191">
         <v>237</v>
       </c>
-    </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1370</v>
       </c>
@@ -26147,8 +26745,11 @@
       <c r="X192">
         <v>137</v>
       </c>
-    </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1376</v>
       </c>
@@ -26221,8 +26822,11 @@
       <c r="X193">
         <v>219</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1382</v>
       </c>
@@ -26295,8 +26899,11 @@
       <c r="X194">
         <v>241</v>
       </c>
-    </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1387</v>
       </c>
@@ -26369,8 +26976,11 @@
       <c r="X195">
         <v>272</v>
       </c>
-    </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1393</v>
       </c>
@@ -26443,8 +27053,11 @@
       <c r="X196">
         <v>182</v>
       </c>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1399</v>
       </c>
@@ -26517,8 +27130,11 @@
       <c r="X197">
         <v>252</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1404</v>
       </c>
@@ -26591,8 +27207,11 @@
       <c r="X198">
         <v>225</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1412</v>
       </c>
@@ -26665,8 +27284,11 @@
       <c r="X199">
         <v>205</v>
       </c>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1418</v>
       </c>
@@ -26739,8 +27361,11 @@
       <c r="X200">
         <v>196</v>
       </c>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1426</v>
       </c>
@@ -26813,8 +27438,11 @@
       <c r="X201">
         <v>241</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1434</v>
       </c>
@@ -26887,8 +27515,11 @@
       <c r="X202">
         <v>264</v>
       </c>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1442</v>
       </c>
@@ -26961,8 +27592,11 @@
       <c r="X203">
         <v>246</v>
       </c>
-    </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1449</v>
       </c>
@@ -27035,8 +27669,11 @@
       <c r="X204">
         <v>252</v>
       </c>
-    </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1454</v>
       </c>
@@ -27109,8 +27746,11 @@
       <c r="X205">
         <v>205</v>
       </c>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1460</v>
       </c>
@@ -27183,8 +27823,11 @@
       <c r="X206">
         <v>210</v>
       </c>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1466</v>
       </c>
@@ -27257,8 +27900,11 @@
       <c r="X207">
         <v>213</v>
       </c>
-    </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1473</v>
       </c>
@@ -27331,8 +27977,11 @@
       <c r="X208">
         <v>191</v>
       </c>
-    </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1479</v>
       </c>
@@ -27405,8 +28054,11 @@
       <c r="X209">
         <v>225</v>
       </c>
-    </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1487</v>
       </c>
@@ -27479,8 +28131,11 @@
       <c r="X210">
         <v>144</v>
       </c>
-    </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1494</v>
       </c>
@@ -27553,8 +28208,11 @@
       <c r="X211">
         <v>186</v>
       </c>
-    </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1501</v>
       </c>
@@ -27627,8 +28285,11 @@
       <c r="X212">
         <v>300</v>
       </c>
-    </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1507</v>
       </c>
@@ -27701,8 +28362,11 @@
       <c r="X213">
         <v>233</v>
       </c>
-    </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1512</v>
       </c>
@@ -27775,8 +28439,11 @@
       <c r="X214">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1519</v>
       </c>
@@ -27849,8 +28516,11 @@
       <c r="X215">
         <v>246</v>
       </c>
-    </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1526</v>
       </c>
@@ -27923,8 +28593,11 @@
       <c r="X216">
         <v>233</v>
       </c>
-    </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1530</v>
       </c>
@@ -27997,8 +28670,11 @@
       <c r="X217">
         <v>196</v>
       </c>
-    </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1537</v>
       </c>
@@ -28071,8 +28747,11 @@
       <c r="X218">
         <v>213</v>
       </c>
-    </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1542</v>
       </c>
@@ -28145,8 +28824,11 @@
       <c r="X219">
         <v>213</v>
       </c>
-    </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1549</v>
       </c>
@@ -28219,8 +28901,11 @@
       <c r="X220">
         <v>225</v>
       </c>
-    </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1556</v>
       </c>
@@ -28293,8 +28978,11 @@
       <c r="X221">
         <v>136</v>
       </c>
-    </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1563</v>
       </c>
@@ -28367,8 +29055,11 @@
       <c r="X222">
         <v>110</v>
       </c>
-    </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1568</v>
       </c>
@@ -28441,8 +29132,11 @@
       <c r="X223">
         <v>219</v>
       </c>
-    </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1575</v>
       </c>
@@ -28515,8 +29209,11 @@
       <c r="X224">
         <v>191</v>
       </c>
-    </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1581</v>
       </c>
@@ -28589,8 +29286,11 @@
       <c r="X225">
         <v>219</v>
       </c>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1586</v>
       </c>
@@ -28663,8 +29363,11 @@
       <c r="X226">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1594</v>
       </c>
@@ -28737,8 +29440,11 @@
       <c r="X227">
         <v>246</v>
       </c>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1600</v>
       </c>
@@ -28811,8 +29517,11 @@
       <c r="X228">
         <v>219</v>
       </c>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1606</v>
       </c>
@@ -28885,8 +29594,11 @@
       <c r="X229">
         <v>233</v>
       </c>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1610</v>
       </c>
@@ -28959,8 +29671,11 @@
       <c r="X230">
         <v>252</v>
       </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1616</v>
       </c>
@@ -29033,8 +29748,11 @@
       <c r="X231">
         <v>279</v>
       </c>
-    </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1621</v>
       </c>
@@ -29107,8 +29825,11 @@
       <c r="X232">
         <v>171</v>
       </c>
-    </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1626</v>
       </c>
@@ -29181,8 +29902,11 @@
       <c r="X233">
         <v>177</v>
       </c>
-    </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1633</v>
       </c>
@@ -29255,8 +29979,11 @@
       <c r="X234">
         <v>300</v>
       </c>
-    </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1639</v>
       </c>
@@ -29329,8 +30056,11 @@
       <c r="X235">
         <v>225</v>
       </c>
-    </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1645</v>
       </c>
@@ -29403,8 +30133,11 @@
       <c r="X236">
         <v>200</v>
       </c>
-    </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1651</v>
       </c>
@@ -29477,8 +30210,11 @@
       <c r="X237">
         <v>264</v>
       </c>
-    </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1658</v>
       </c>
@@ -29551,8 +30287,11 @@
       <c r="X238">
         <v>252</v>
       </c>
-    </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1667</v>
       </c>
@@ -29625,8 +30364,11 @@
       <c r="X239">
         <v>279</v>
       </c>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1673</v>
       </c>
@@ -29699,8 +30441,11 @@
       <c r="X240">
         <v>252</v>
       </c>
-    </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1679</v>
       </c>
@@ -29773,8 +30518,11 @@
       <c r="X241">
         <v>272</v>
       </c>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1687</v>
       </c>
@@ -29847,8 +30595,11 @@
       <c r="X242">
         <v>205</v>
       </c>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1692</v>
       </c>
@@ -29921,8 +30672,11 @@
       <c r="X243">
         <v>325</v>
       </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1697</v>
       </c>
@@ -29995,8 +30749,11 @@
       <c r="X244">
         <v>182</v>
       </c>
-    </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1703</v>
       </c>
@@ -30069,8 +30826,11 @@
       <c r="X245">
         <v>158</v>
       </c>
-    </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1710</v>
       </c>
@@ -30143,8 +30903,11 @@
       <c r="X246">
         <v>208</v>
       </c>
-    </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1719</v>
       </c>
@@ -30217,8 +30980,11 @@
       <c r="X247">
         <v>241</v>
       </c>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1726</v>
       </c>
@@ -30291,8 +31057,11 @@
       <c r="X248">
         <v>137</v>
       </c>
-    </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1731</v>
       </c>
@@ -30365,8 +31134,11 @@
       <c r="X249">
         <v>279</v>
       </c>
-    </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1737</v>
       </c>
@@ -30439,8 +31211,11 @@
       <c r="X250">
         <v>279</v>
       </c>
-    </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1743</v>
       </c>
@@ -30513,8 +31288,11 @@
       <c r="X251">
         <v>279</v>
       </c>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1749</v>
       </c>
@@ -30587,8 +31365,11 @@
       <c r="X252">
         <v>246</v>
       </c>
-    </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1755</v>
       </c>
@@ -30661,8 +31442,11 @@
       <c r="X253">
         <v>161</v>
       </c>
-    </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1762</v>
       </c>
@@ -30735,8 +31519,11 @@
       <c r="X254">
         <v>225</v>
       </c>
-    </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1768</v>
       </c>
@@ -30809,8 +31596,11 @@
       <c r="X255">
         <v>252</v>
       </c>
-    </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1774</v>
       </c>
@@ -30883,8 +31673,11 @@
       <c r="X256">
         <v>264</v>
       </c>
-    </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1780</v>
       </c>
@@ -30957,8 +31750,11 @@
       <c r="X257">
         <v>252</v>
       </c>
-    </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1788</v>
       </c>
@@ -31031,8 +31827,11 @@
       <c r="X258">
         <v>264</v>
       </c>
-    </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1794</v>
       </c>
@@ -31105,8 +31904,11 @@
       <c r="X259">
         <v>246</v>
       </c>
-    </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1800</v>
       </c>
@@ -31179,8 +31981,11 @@
       <c r="X260">
         <v>252</v>
       </c>
-    </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1807</v>
       </c>
@@ -31253,8 +32058,11 @@
       <c r="X261">
         <v>331</v>
       </c>
-    </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1812</v>
       </c>
@@ -31327,8 +32135,11 @@
       <c r="X262">
         <v>288</v>
       </c>
-    </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1818</v>
       </c>
@@ -31401,8 +32212,11 @@
       <c r="X263">
         <v>300</v>
       </c>
-    </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1824</v>
       </c>
@@ -31475,8 +32289,11 @@
       <c r="X264">
         <v>241</v>
       </c>
-    </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1830</v>
       </c>
@@ -31549,8 +32366,11 @@
       <c r="X265">
         <v>325</v>
       </c>
-    </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1836</v>
       </c>
@@ -31623,8 +32443,11 @@
       <c r="X266">
         <v>208</v>
       </c>
-    </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1842</v>
       </c>
@@ -31697,8 +32520,11 @@
       <c r="X267">
         <v>196</v>
       </c>
-    </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1847</v>
       </c>
@@ -31771,8 +32597,11 @@
       <c r="X268">
         <v>288</v>
       </c>
-    </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1854</v>
       </c>
@@ -31845,8 +32674,11 @@
       <c r="X269">
         <v>314</v>
       </c>
-    </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1860</v>
       </c>
@@ -31919,8 +32751,11 @@
       <c r="X270">
         <v>210</v>
       </c>
-    </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1866</v>
       </c>
@@ -31993,8 +32828,11 @@
       <c r="X271">
         <v>308</v>
       </c>
-    </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1871</v>
       </c>
@@ -32067,8 +32905,11 @@
       <c r="X272">
         <v>237</v>
       </c>
-    </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1878</v>
       </c>
@@ -32141,8 +32982,11 @@
       <c r="X273">
         <v>321</v>
       </c>
-    </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1883</v>
       </c>
@@ -32215,8 +33059,11 @@
       <c r="X274">
         <v>288</v>
       </c>
-    </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1889</v>
       </c>
@@ -32289,8 +33136,11 @@
       <c r="X275">
         <v>225</v>
       </c>
-    </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1895</v>
       </c>
@@ -32363,8 +33213,11 @@
       <c r="X276">
         <v>264</v>
       </c>
-    </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1902</v>
       </c>
@@ -32437,8 +33290,11 @@
       <c r="X277">
         <v>288</v>
       </c>
-    </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1906</v>
       </c>
@@ -32511,8 +33367,11 @@
       <c r="X278">
         <v>272</v>
       </c>
-    </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1913</v>
       </c>
@@ -32585,8 +33444,11 @@
       <c r="X279">
         <v>321</v>
       </c>
-    </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1919</v>
       </c>
@@ -32659,8 +33521,11 @@
       <c r="X280">
         <v>272</v>
       </c>
-    </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1926</v>
       </c>
@@ -32733,8 +33598,11 @@
       <c r="X281">
         <v>219</v>
       </c>
-    </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1932</v>
       </c>
@@ -32807,8 +33675,11 @@
       <c r="X282">
         <v>279</v>
       </c>
-    </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1938</v>
       </c>
@@ -32881,8 +33752,11 @@
       <c r="X283">
         <v>288</v>
       </c>
-    </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1944</v>
       </c>
@@ -32955,8 +33829,11 @@
       <c r="X284">
         <v>279</v>
       </c>
-    </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1950</v>
       </c>
@@ -33029,8 +33906,11 @@
       <c r="X285">
         <v>279</v>
       </c>
-    </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1955</v>
       </c>
@@ -33103,8 +33983,11 @@
       <c r="X286">
         <v>288</v>
       </c>
-    </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1959</v>
       </c>
@@ -33177,8 +34060,11 @@
       <c r="X287">
         <v>314</v>
       </c>
-    </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1967</v>
       </c>
@@ -33251,8 +34137,11 @@
       <c r="X288">
         <v>264</v>
       </c>
-    </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1973</v>
       </c>
@@ -33325,8 +34214,11 @@
       <c r="X289">
         <v>246</v>
       </c>
-    </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1980</v>
       </c>
@@ -33399,8 +34291,11 @@
       <c r="X290">
         <v>279</v>
       </c>
-    </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1987</v>
       </c>
@@ -33473,8 +34368,11 @@
       <c r="X291">
         <v>210</v>
       </c>
-    </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1993</v>
       </c>
@@ -33547,8 +34445,11 @@
       <c r="X292">
         <v>272</v>
       </c>
-    </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1998</v>
       </c>
@@ -33621,8 +34522,11 @@
       <c r="X293">
         <v>288</v>
       </c>
-    </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>2004</v>
       </c>
@@ -33695,8 +34599,11 @@
       <c r="X294">
         <v>213</v>
       </c>
-    </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>2012</v>
       </c>
@@ -33769,8 +34676,11 @@
       <c r="X295">
         <v>237</v>
       </c>
-    </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>2018</v>
       </c>
@@ -33843,8 +34753,11 @@
       <c r="X296">
         <v>288</v>
       </c>
-    </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>2024</v>
       </c>
@@ -33917,8 +34830,11 @@
       <c r="X297">
         <v>233</v>
       </c>
-    </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>2031</v>
       </c>
@@ -33991,8 +34907,11 @@
       <c r="X298">
         <v>314</v>
       </c>
-    </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>2036</v>
       </c>
@@ -34065,8 +34984,11 @@
       <c r="X299">
         <v>241</v>
       </c>
-    </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>2040</v>
       </c>
@@ -34139,8 +35061,11 @@
       <c r="X300">
         <v>370</v>
       </c>
-    </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>2045</v>
       </c>
@@ -34213,8 +35138,11 @@
       <c r="X301">
         <v>348</v>
       </c>
-    </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>2051</v>
       </c>
@@ -34287,8 +35215,11 @@
       <c r="X302">
         <v>354</v>
       </c>
-    </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>2058</v>
       </c>
@@ -34361,8 +35292,11 @@
       <c r="X303">
         <v>354</v>
       </c>
-    </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>2065</v>
       </c>
@@ -34435,8 +35369,11 @@
       <c r="X304">
         <v>314</v>
       </c>
-    </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>2070</v>
       </c>
@@ -34509,8 +35446,11 @@
       <c r="X305">
         <v>314</v>
       </c>
-    </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2077</v>
       </c>
@@ -34583,8 +35523,11 @@
       <c r="X306">
         <v>325</v>
       </c>
-    </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>2084</v>
       </c>
@@ -34657,8 +35600,11 @@
       <c r="X307">
         <v>300</v>
       </c>
-    </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>2091</v>
       </c>
@@ -34731,8 +35677,11 @@
       <c r="X308">
         <v>252</v>
       </c>
-    </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>2098</v>
       </c>
@@ -34805,8 +35754,11 @@
       <c r="X309">
         <v>288</v>
       </c>
-    </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>2104</v>
       </c>
@@ -34879,8 +35831,11 @@
       <c r="X310">
         <v>308</v>
       </c>
-    </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>2111</v>
       </c>
@@ -34953,8 +35908,11 @@
       <c r="X311">
         <v>252</v>
       </c>
-    </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>2118</v>
       </c>
@@ -35027,8 +35985,11 @@
       <c r="X312">
         <v>300</v>
       </c>
-    </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>2125</v>
       </c>
@@ -35101,8 +36062,11 @@
       <c r="X313">
         <v>288</v>
       </c>
-    </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>2133</v>
       </c>
@@ -35175,8 +36139,11 @@
       <c r="X314">
         <v>272</v>
       </c>
-    </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>2140</v>
       </c>
@@ -35249,8 +36216,11 @@
       <c r="X315">
         <v>331</v>
       </c>
-    </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>2147</v>
       </c>
@@ -35323,8 +36293,11 @@
       <c r="X316">
         <v>182</v>
       </c>
-    </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>2153</v>
       </c>
@@ -35397,8 +36370,11 @@
       <c r="X317">
         <v>300</v>
       </c>
-    </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>2159</v>
       </c>
@@ -35471,8 +36447,11 @@
       <c r="X318">
         <v>383</v>
       </c>
-    </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>2163</v>
       </c>
@@ -35545,8 +36524,11 @@
       <c r="X319">
         <v>370</v>
       </c>
-    </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>2169</v>
       </c>
@@ -35619,8 +36601,11 @@
       <c r="X320">
         <v>314</v>
       </c>
-    </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>2177</v>
       </c>
@@ -35693,8 +36678,11 @@
       <c r="X321">
         <v>348</v>
       </c>
-    </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>2184</v>
       </c>
@@ -35767,8 +36755,11 @@
       <c r="X322">
         <v>354</v>
       </c>
-    </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>2192</v>
       </c>
@@ -35841,8 +36832,11 @@
       <c r="X323">
         <v>331</v>
       </c>
-    </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>2200</v>
       </c>
@@ -35915,8 +36909,11 @@
       <c r="X324">
         <v>288</v>
       </c>
-    </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>2206</v>
       </c>
@@ -35989,8 +36986,11 @@
       <c r="X325">
         <v>331</v>
       </c>
-    </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>2211</v>
       </c>
@@ -36063,8 +37063,11 @@
       <c r="X326">
         <v>331</v>
       </c>
-    </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>2217</v>
       </c>
@@ -36137,8 +37140,11 @@
       <c r="X327">
         <v>404</v>
       </c>
-    </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>2226</v>
       </c>
@@ -36211,8 +37217,11 @@
       <c r="X328">
         <v>252</v>
       </c>
-    </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>2232</v>
       </c>
@@ -36285,8 +37294,11 @@
       <c r="X329">
         <v>331</v>
       </c>
-    </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>2239</v>
       </c>
@@ -36359,8 +37371,11 @@
       <c r="X330">
         <v>331</v>
       </c>
-    </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>2244</v>
       </c>
@@ -36433,8 +37448,11 @@
       <c r="X331">
         <v>331</v>
       </c>
-    </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>2252</v>
       </c>
@@ -36507,8 +37525,11 @@
       <c r="X332">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>2257</v>
       </c>
@@ -36581,8 +37602,11 @@
       <c r="X333">
         <v>362</v>
       </c>
-    </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2261</v>
       </c>
@@ -36655,8 +37679,11 @@
       <c r="X334">
         <v>404</v>
       </c>
-    </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>2267</v>
       </c>
@@ -36729,8 +37756,11 @@
       <c r="X335">
         <v>325</v>
       </c>
-    </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>2272</v>
       </c>
@@ -36803,8 +37833,11 @@
       <c r="X336">
         <v>252</v>
       </c>
-    </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>2277</v>
       </c>
@@ -36877,8 +37910,11 @@
       <c r="X337">
         <v>308</v>
       </c>
-    </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>2282</v>
       </c>
@@ -36951,8 +37987,11 @@
       <c r="X338">
         <v>348</v>
       </c>
-    </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>2287</v>
       </c>
@@ -37025,8 +38064,11 @@
       <c r="X339">
         <v>300</v>
       </c>
-    </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>2292</v>
       </c>
@@ -37099,8 +38141,11 @@
       <c r="X340">
         <v>331</v>
       </c>
-    </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>2297</v>
       </c>
@@ -37173,8 +38218,11 @@
       <c r="X341">
         <v>354</v>
       </c>
-    </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>2305</v>
       </c>
@@ -37247,8 +38295,11 @@
       <c r="X342">
         <v>404</v>
       </c>
-    </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>2311</v>
       </c>
@@ -37321,8 +38372,11 @@
       <c r="X343">
         <v>370</v>
       </c>
-    </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>2316</v>
       </c>
@@ -37395,8 +38449,11 @@
       <c r="X344">
         <v>325</v>
       </c>
-    </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>2323</v>
       </c>
@@ -37469,8 +38526,11 @@
       <c r="X345">
         <v>331</v>
       </c>
-    </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>2330</v>
       </c>
@@ -37543,8 +38603,11 @@
       <c r="X346">
         <v>362</v>
       </c>
-    </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>2339</v>
       </c>
@@ -37617,8 +38680,11 @@
       <c r="X347">
         <v>325</v>
       </c>
-    </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2345</v>
       </c>
@@ -37691,8 +38757,11 @@
       <c r="X348">
         <v>370</v>
       </c>
-    </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>2352</v>
       </c>
@@ -37765,8 +38834,11 @@
       <c r="X349">
         <v>331</v>
       </c>
-    </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>2358</v>
       </c>
@@ -37839,8 +38911,11 @@
       <c r="X350">
         <v>331</v>
       </c>
-    </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>2364</v>
       </c>
@@ -37913,8 +38988,11 @@
       <c r="X351">
         <v>348</v>
       </c>
-    </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>2371</v>
       </c>
@@ -37987,8 +39065,11 @@
       <c r="X352">
         <v>354</v>
       </c>
-    </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>2375</v>
       </c>
@@ -38061,8 +39142,11 @@
       <c r="X353">
         <v>308</v>
       </c>
-    </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>2380</v>
       </c>
@@ -38135,8 +39219,11 @@
       <c r="X354">
         <v>308</v>
       </c>
-    </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>2387</v>
       </c>
@@ -38209,8 +39296,11 @@
       <c r="X355">
         <v>300</v>
       </c>
-    </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>2394</v>
       </c>
@@ -38283,8 +39373,11 @@
       <c r="X356">
         <v>314</v>
       </c>
-    </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>2401</v>
       </c>
@@ -38357,8 +39450,11 @@
       <c r="X357">
         <v>264</v>
       </c>
-    </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>2406</v>
       </c>
@@ -38431,8 +39527,11 @@
       <c r="X358">
         <v>331</v>
       </c>
-    </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>2414</v>
       </c>
@@ -38505,8 +39604,11 @@
       <c r="X359">
         <v>331</v>
       </c>
-    </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>2419</v>
       </c>
@@ -38579,8 +39681,11 @@
       <c r="X360">
         <v>321</v>
       </c>
-    </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>2427</v>
       </c>
@@ -38653,8 +39758,11 @@
       <c r="X361">
         <v>354</v>
       </c>
-    </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>2433</v>
       </c>
@@ -38727,8 +39835,11 @@
       <c r="X362">
         <v>288</v>
       </c>
-    </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>2439</v>
       </c>
@@ -38801,8 +39912,11 @@
       <c r="X363">
         <v>308</v>
       </c>
-    </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>2444</v>
       </c>
@@ -38875,8 +39989,11 @@
       <c r="X364">
         <v>383</v>
       </c>
-    </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>2450</v>
       </c>
@@ -38949,8 +40066,11 @@
       <c r="X365">
         <v>354</v>
       </c>
-    </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>2456</v>
       </c>
@@ -39023,8 +40143,11 @@
       <c r="X366">
         <v>272</v>
       </c>
-    </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>2460</v>
       </c>
@@ -39097,8 +40220,11 @@
       <c r="X367">
         <v>383</v>
       </c>
-    </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>2467</v>
       </c>
@@ -39171,8 +40297,11 @@
       <c r="X368">
         <v>370</v>
       </c>
-    </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>2472</v>
       </c>
@@ -39245,8 +40374,11 @@
       <c r="X369">
         <v>331</v>
       </c>
-    </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>2477</v>
       </c>
@@ -39319,8 +40451,11 @@
       <c r="X370">
         <v>383</v>
       </c>
-    </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>2482</v>
       </c>
@@ -39393,8 +40528,11 @@
       <c r="X371">
         <v>321</v>
       </c>
-    </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>2487</v>
       </c>
@@ -39467,8 +40605,11 @@
       <c r="X372">
         <v>370</v>
       </c>
-    </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>2494</v>
       </c>
@@ -39541,8 +40682,11 @@
       <c r="X373">
         <v>362</v>
       </c>
-    </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>2500</v>
       </c>
@@ -39615,8 +40759,11 @@
       <c r="X374">
         <v>383</v>
       </c>
-    </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>2506</v>
       </c>
@@ -39689,8 +40836,11 @@
       <c r="X375">
         <v>362</v>
       </c>
-    </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>2511</v>
       </c>
@@ -39763,8 +40913,11 @@
       <c r="X376">
         <v>370</v>
       </c>
-    </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>2515</v>
       </c>
@@ -39837,8 +40990,11 @@
       <c r="X377">
         <v>348</v>
       </c>
-    </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>2521</v>
       </c>
@@ -39911,8 +41067,11 @@
       <c r="X378">
         <v>370</v>
       </c>
-    </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>2527</v>
       </c>
@@ -39985,8 +41144,11 @@
       <c r="X379">
         <v>404</v>
       </c>
-    </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>2532</v>
       </c>
@@ -40059,8 +41221,11 @@
       <c r="X380">
         <v>362</v>
       </c>
-    </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>2536</v>
       </c>
@@ -40133,8 +41298,11 @@
       <c r="X381">
         <v>370</v>
       </c>
-    </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>2543</v>
       </c>
@@ -40207,8 +41375,11 @@
       <c r="X382">
         <v>431</v>
       </c>
-    </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>2548</v>
       </c>
@@ -40281,8 +41452,11 @@
       <c r="X383">
         <v>431</v>
       </c>
-    </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>2553</v>
       </c>
@@ -40355,8 +41529,11 @@
       <c r="X384">
         <v>370</v>
       </c>
-    </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>2560</v>
       </c>
@@ -40429,8 +41606,11 @@
       <c r="X385">
         <v>383</v>
       </c>
-    </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>2566</v>
       </c>
@@ -40503,8 +41683,11 @@
       <c r="X386">
         <v>354</v>
       </c>
-    </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>2573</v>
       </c>
@@ -40577,8 +41760,11 @@
       <c r="X387">
         <v>383</v>
       </c>
-    </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>2579</v>
       </c>
@@ -40651,8 +41837,11 @@
       <c r="X388">
         <v>383</v>
       </c>
-    </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>2585</v>
       </c>
@@ -40725,8 +41914,11 @@
       <c r="X389">
         <v>431</v>
       </c>
-    </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>2591</v>
       </c>
@@ -40799,8 +41991,11 @@
       <c r="X390">
         <v>362</v>
       </c>
-    </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>2596</v>
       </c>
@@ -40873,8 +42068,11 @@
       <c r="X391">
         <v>383</v>
       </c>
-    </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>2600</v>
       </c>
@@ -40947,8 +42145,11 @@
       <c r="X392">
         <v>383</v>
       </c>
-    </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>2606</v>
       </c>
@@ -41021,8 +42222,11 @@
       <c r="X393">
         <v>431</v>
       </c>
-    </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>2611</v>
       </c>
@@ -41095,8 +42299,11 @@
       <c r="X394">
         <v>465</v>
       </c>
-    </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>2618</v>
       </c>
@@ -41169,8 +42376,11 @@
       <c r="X395">
         <v>465</v>
       </c>
-    </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>2622</v>
       </c>
@@ -41243,8 +42453,11 @@
       <c r="X396">
         <v>383</v>
       </c>
-    </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>2627</v>
       </c>
@@ -41317,8 +42530,11 @@
       <c r="X397">
         <v>431</v>
       </c>
-    </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>2632</v>
       </c>
@@ -41391,8 +42607,11 @@
       <c r="X398">
         <v>404</v>
       </c>
-    </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>2641</v>
       </c>
@@ -41465,8 +42684,11 @@
       <c r="X399">
         <v>431</v>
       </c>
-    </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>2647</v>
       </c>
@@ -41539,8 +42761,11 @@
       <c r="X400">
         <v>465</v>
       </c>
-    </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>2653</v>
       </c>
@@ -41613,8 +42838,11 @@
       <c r="X401">
         <v>431</v>
       </c>
-    </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>2658</v>
       </c>
@@ -41687,8 +42915,11 @@
       <c r="X402">
         <v>404</v>
       </c>
-    </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>2664</v>
       </c>
@@ -41761,8 +42992,11 @@
       <c r="X403">
         <v>404</v>
       </c>
-    </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>2669</v>
       </c>
@@ -41835,8 +43069,11 @@
       <c r="X404">
         <v>370</v>
       </c>
-    </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>2675</v>
       </c>
@@ -41909,8 +43146,11 @@
       <c r="X405">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>2681</v>
       </c>
@@ -41983,8 +43223,11 @@
       <c r="X406">
         <v>362</v>
       </c>
-    </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>2688</v>
       </c>
@@ -42057,8 +43300,11 @@
       <c r="X407">
         <v>431</v>
       </c>
-    </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>2694</v>
       </c>
@@ -42131,8 +43377,11 @@
       <c r="X408">
         <v>383</v>
       </c>
-    </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>2701</v>
       </c>
@@ -42205,8 +43454,11 @@
       <c r="X409">
         <v>517</v>
       </c>
-    </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>2709</v>
       </c>
@@ -42279,8 +43531,11 @@
       <c r="X410">
         <v>404</v>
       </c>
-    </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>2716</v>
       </c>
@@ -42350,8 +43605,11 @@
       <c r="X411">
         <v>219</v>
       </c>
-    </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>2722</v>
       </c>
@@ -42424,8 +43682,11 @@
       <c r="X412">
         <v>404</v>
       </c>
-    </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>2728</v>
       </c>
@@ -42498,8 +43759,11 @@
       <c r="X413">
         <v>517</v>
       </c>
-    </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>2733</v>
       </c>
@@ -42572,8 +43836,11 @@
       <c r="X414">
         <v>331</v>
       </c>
-    </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>2738</v>
       </c>
@@ -42646,8 +43913,11 @@
       <c r="X415">
         <v>404</v>
       </c>
-    </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>2745</v>
       </c>
@@ -42720,8 +43990,11 @@
       <c r="X416">
         <v>383</v>
       </c>
-    </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>2750</v>
       </c>
@@ -42794,8 +44067,11 @@
       <c r="X417">
         <v>404</v>
       </c>
-    </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>2757</v>
       </c>
@@ -42868,8 +44144,11 @@
       <c r="X418">
         <v>404</v>
       </c>
-    </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>2762</v>
       </c>
@@ -42942,8 +44221,11 @@
       <c r="X419">
         <v>465</v>
       </c>
-    </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>2768</v>
       </c>
@@ -43016,8 +44298,11 @@
       <c r="X420">
         <v>431</v>
       </c>
-    </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>2773</v>
       </c>
@@ -43090,8 +44375,11 @@
       <c r="X421">
         <v>348</v>
       </c>
-    </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>2779</v>
       </c>
@@ -43164,8 +44452,11 @@
       <c r="X422">
         <v>431</v>
       </c>
-    </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>2783</v>
       </c>
@@ -43238,8 +44529,11 @@
       <c r="X423">
         <v>465</v>
       </c>
-    </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>2788</v>
       </c>
@@ -43312,8 +44606,11 @@
       <c r="X424">
         <v>404</v>
       </c>
-    </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>2795</v>
       </c>
@@ -43386,8 +44683,11 @@
       <c r="X425">
         <v>404</v>
       </c>
-    </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>2802</v>
       </c>
@@ -43460,8 +44760,11 @@
       <c r="X426">
         <v>383</v>
       </c>
-    </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>2808</v>
       </c>
@@ -43534,8 +44837,11 @@
       <c r="X427">
         <v>383</v>
       </c>
-    </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>2813</v>
       </c>
@@ -43608,8 +44914,11 @@
       <c r="X428">
         <v>431</v>
       </c>
-    </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>2819</v>
       </c>
@@ -43682,8 +44991,11 @@
       <c r="X429">
         <v>465</v>
       </c>
-    </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>2824</v>
       </c>
@@ -43756,8 +45068,11 @@
       <c r="X430">
         <v>465</v>
       </c>
-    </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>2832</v>
       </c>
@@ -43830,8 +45145,11 @@
       <c r="X431">
         <v>370</v>
       </c>
-    </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>2837</v>
       </c>
@@ -43904,8 +45222,11 @@
       <c r="X432">
         <v>465</v>
       </c>
-    </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>2841</v>
       </c>
@@ -43978,8 +45299,11 @@
       <c r="X433">
         <v>404</v>
       </c>
-    </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>2846</v>
       </c>
@@ -44052,8 +45376,11 @@
       <c r="X434">
         <v>404</v>
       </c>
-    </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>2852</v>
       </c>
@@ -44126,8 +45453,11 @@
       <c r="X435">
         <v>362</v>
       </c>
-    </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>2859</v>
       </c>
@@ -44200,8 +45530,11 @@
       <c r="X436">
         <v>404</v>
       </c>
-    </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>2865</v>
       </c>
@@ -44274,8 +45607,11 @@
       <c r="X437">
         <v>383</v>
       </c>
-    </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>2872</v>
       </c>
@@ -44348,8 +45684,11 @@
       <c r="X438">
         <v>383</v>
       </c>
-    </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>2877</v>
       </c>
@@ -44422,8 +45761,11 @@
       <c r="X439">
         <v>404</v>
       </c>
-    </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>2885</v>
       </c>
@@ -44496,8 +45838,11 @@
       <c r="X440">
         <v>517</v>
       </c>
-    </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>2890</v>
       </c>
@@ -44570,8 +45915,11 @@
       <c r="X441">
         <v>370</v>
       </c>
-    </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>2894</v>
       </c>
@@ -44644,8 +45992,11 @@
       <c r="X442">
         <v>465</v>
       </c>
-    </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>2899</v>
       </c>
@@ -44718,8 +46069,11 @@
       <c r="X443">
         <v>517</v>
       </c>
-    </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>2904</v>
       </c>
@@ -44792,8 +46146,11 @@
       <c r="X444">
         <v>465</v>
       </c>
-    </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>2911</v>
       </c>
@@ -44866,8 +46223,11 @@
       <c r="X445">
         <v>404</v>
       </c>
-    </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>2915</v>
       </c>
@@ -44940,8 +46300,11 @@
       <c r="X446">
         <v>465</v>
       </c>
-    </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>2920</v>
       </c>
@@ -45014,8 +46377,11 @@
       <c r="X447">
         <v>465</v>
       </c>
-    </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>2925</v>
       </c>
@@ -45088,8 +46454,11 @@
       <c r="X448">
         <v>431</v>
       </c>
-    </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>2929</v>
       </c>
@@ -45162,8 +46531,11 @@
       <c r="X449">
         <v>383</v>
       </c>
-    </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>2935</v>
       </c>
@@ -45236,8 +46608,11 @@
       <c r="X450">
         <v>404</v>
       </c>
-    </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>2939</v>
       </c>
@@ -45310,8 +46685,11 @@
       <c r="X451">
         <v>517</v>
       </c>
-    </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>2945</v>
       </c>
@@ -45384,8 +46762,11 @@
       <c r="X452">
         <v>431</v>
       </c>
-    </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y452">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>2949</v>
       </c>
@@ -45458,8 +46839,11 @@
       <c r="X453">
         <v>431</v>
       </c>
-    </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>2955</v>
       </c>
@@ -45532,8 +46916,11 @@
       <c r="X454">
         <v>465</v>
       </c>
-    </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y454">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>2960</v>
       </c>
@@ -45606,8 +46993,11 @@
       <c r="X455">
         <v>404</v>
       </c>
-    </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y455">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>2967</v>
       </c>
@@ -45680,8 +47070,11 @@
       <c r="X456">
         <v>404</v>
       </c>
-    </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y456">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>2972</v>
       </c>
@@ -45754,8 +47147,11 @@
       <c r="X457">
         <v>465</v>
       </c>
-    </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y457">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>2976</v>
       </c>
@@ -45828,8 +47224,11 @@
       <c r="X458">
         <v>465</v>
       </c>
-    </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y458">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>2980</v>
       </c>
@@ -45902,8 +47301,11 @@
       <c r="X459">
         <v>431</v>
       </c>
-    </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y459">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>2984</v>
       </c>
@@ -45976,8 +47378,11 @@
       <c r="X460">
         <v>383</v>
       </c>
-    </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y460">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>2991</v>
       </c>
@@ -46050,8 +47455,11 @@
       <c r="X461">
         <v>465</v>
       </c>
-    </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y461">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>2996</v>
       </c>
@@ -46124,8 +47532,11 @@
       <c r="X462">
         <v>431</v>
       </c>
-    </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y462">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>3004</v>
       </c>
@@ -46198,8 +47609,11 @@
       <c r="X463">
         <v>465</v>
       </c>
-    </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y463">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>3011</v>
       </c>
@@ -46272,8 +47686,11 @@
       <c r="X464">
         <v>465</v>
       </c>
-    </row>
-    <row r="465" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y464">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>3015</v>
       </c>
@@ -46346,8 +47763,11 @@
       <c r="X465">
         <v>465</v>
       </c>
-    </row>
-    <row r="466" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y465">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>3021</v>
       </c>
@@ -46420,8 +47840,11 @@
       <c r="X466">
         <v>383</v>
       </c>
-    </row>
-    <row r="467" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y466">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>3026</v>
       </c>
@@ -46494,8 +47917,11 @@
       <c r="X467">
         <v>431</v>
       </c>
-    </row>
-    <row r="468" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y467">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>3032</v>
       </c>
@@ -46568,8 +47994,11 @@
       <c r="X468">
         <v>517</v>
       </c>
-    </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y468">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>3037</v>
       </c>
@@ -46642,8 +48071,11 @@
       <c r="X469">
         <v>465</v>
       </c>
-    </row>
-    <row r="470" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y469">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>3042</v>
       </c>
@@ -46716,8 +48148,11 @@
       <c r="X470">
         <v>431</v>
       </c>
-    </row>
-    <row r="471" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y470">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>3050</v>
       </c>
@@ -46790,8 +48225,11 @@
       <c r="X471">
         <v>465</v>
       </c>
-    </row>
-    <row r="472" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y471">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>3054</v>
       </c>
@@ -46864,8 +48302,11 @@
       <c r="X472">
         <v>517</v>
       </c>
-    </row>
-    <row r="473" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y472">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>3061</v>
       </c>
@@ -46938,8 +48379,11 @@
       <c r="X473">
         <v>465</v>
       </c>
-    </row>
-    <row r="474" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y473">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>3068</v>
       </c>
@@ -47012,8 +48456,11 @@
       <c r="X474">
         <v>431</v>
       </c>
-    </row>
-    <row r="475" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y474">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>3073</v>
       </c>
@@ -47086,8 +48533,11 @@
       <c r="X475">
         <v>517</v>
       </c>
-    </row>
-    <row r="476" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y475">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>3078</v>
       </c>
@@ -47160,8 +48610,11 @@
       <c r="X476">
         <v>465</v>
       </c>
-    </row>
-    <row r="477" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y476">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>3086</v>
       </c>
@@ -47234,8 +48687,11 @@
       <c r="X477">
         <v>465</v>
       </c>
-    </row>
-    <row r="478" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y477">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>3091</v>
       </c>
@@ -47308,8 +48764,11 @@
       <c r="X478">
         <v>517</v>
       </c>
-    </row>
-    <row r="479" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y478">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>3097</v>
       </c>
@@ -47382,8 +48841,11 @@
       <c r="X479">
         <v>517</v>
       </c>
-    </row>
-    <row r="480" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y479">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>3103</v>
       </c>
@@ -47456,8 +48918,11 @@
       <c r="X480">
         <v>517</v>
       </c>
-    </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y480">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>3108</v>
       </c>
@@ -47530,8 +48995,11 @@
       <c r="X481">
         <v>431</v>
       </c>
-    </row>
-    <row r="482" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y481">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>3114</v>
       </c>
@@ -47604,8 +49072,11 @@
       <c r="X482">
         <v>517</v>
       </c>
-    </row>
-    <row r="483" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y482">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>3118</v>
       </c>
@@ -47678,8 +49149,11 @@
       <c r="X483">
         <v>517</v>
       </c>
-    </row>
-    <row r="484" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y483">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>3126</v>
       </c>
@@ -47752,8 +49226,11 @@
       <c r="X484">
         <v>465</v>
       </c>
-    </row>
-    <row r="485" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y484">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>3132</v>
       </c>
@@ -47826,8 +49303,11 @@
       <c r="X485">
         <v>404</v>
       </c>
-    </row>
-    <row r="486" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y485">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>3137</v>
       </c>
@@ -47900,8 +49380,11 @@
       <c r="X486">
         <v>383</v>
       </c>
-    </row>
-    <row r="487" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y486">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>3143</v>
       </c>
@@ -47974,8 +49457,11 @@
       <c r="X487">
         <v>517</v>
       </c>
-    </row>
-    <row r="488" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y487">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>3148</v>
       </c>
@@ -48048,8 +49534,11 @@
       <c r="X488">
         <v>404</v>
       </c>
-    </row>
-    <row r="489" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y488">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>3154</v>
       </c>
@@ -48122,8 +49611,11 @@
       <c r="X489">
         <v>517</v>
       </c>
-    </row>
-    <row r="490" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y489">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>3158</v>
       </c>
@@ -48196,8 +49688,11 @@
       <c r="X490">
         <v>404</v>
       </c>
-    </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y490">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>3163</v>
       </c>
@@ -48270,8 +49765,11 @@
       <c r="X491">
         <v>431</v>
       </c>
-    </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y491">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>3170</v>
       </c>
@@ -48344,8 +49842,11 @@
       <c r="X492">
         <v>431</v>
       </c>
-    </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y492">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>3174</v>
       </c>
@@ -48418,8 +49919,11 @@
       <c r="X493">
         <v>431</v>
       </c>
-    </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y493">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>3180</v>
       </c>
@@ -48492,8 +49996,11 @@
       <c r="X494">
         <v>431</v>
       </c>
-    </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y494">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>3186</v>
       </c>
@@ -48566,8 +50073,11 @@
       <c r="X495">
         <v>465</v>
       </c>
-    </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y495">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>3191</v>
       </c>
@@ -48640,8 +50150,11 @@
       <c r="X496">
         <v>589</v>
       </c>
-    </row>
-    <row r="497" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y496">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>3197</v>
       </c>
@@ -48714,8 +50227,11 @@
       <c r="X497">
         <v>465</v>
       </c>
-    </row>
-    <row r="498" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y497">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>3205</v>
       </c>
@@ -48788,8 +50304,11 @@
       <c r="X498">
         <v>517</v>
       </c>
-    </row>
-    <row r="499" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y498">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>3211</v>
       </c>
@@ -48862,8 +50381,11 @@
       <c r="X499">
         <v>465</v>
       </c>
-    </row>
-    <row r="500" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y499">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>3217</v>
       </c>
@@ -48936,8 +50458,11 @@
       <c r="X500">
         <v>431</v>
       </c>
-    </row>
-    <row r="501" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y500">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>3223</v>
       </c>
@@ -49010,8 +50535,11 @@
       <c r="X501">
         <v>431</v>
       </c>
-    </row>
-    <row r="502" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y501">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>3227</v>
       </c>
@@ -49084,8 +50612,11 @@
       <c r="X502">
         <v>431</v>
       </c>
-    </row>
-    <row r="503" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y502">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>3233</v>
       </c>
@@ -49158,8 +50689,11 @@
       <c r="X503">
         <v>431</v>
       </c>
-    </row>
-    <row r="504" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y503">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>3238</v>
       </c>
@@ -49232,8 +50766,11 @@
       <c r="X504">
         <v>465</v>
       </c>
-    </row>
-    <row r="505" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y504">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>3244</v>
       </c>
@@ -49306,8 +50843,11 @@
       <c r="X505">
         <v>465</v>
       </c>
-    </row>
-    <row r="506" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y505">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>3251</v>
       </c>
@@ -49380,8 +50920,11 @@
       <c r="X506">
         <v>517</v>
       </c>
-    </row>
-    <row r="507" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y506">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>3256</v>
       </c>
@@ -49454,8 +50997,11 @@
       <c r="X507">
         <v>431</v>
       </c>
-    </row>
-    <row r="508" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y507">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>3263</v>
       </c>
@@ -49528,8 +51074,11 @@
       <c r="X508">
         <v>517</v>
       </c>
-    </row>
-    <row r="509" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y508">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>3267</v>
       </c>
@@ -49602,8 +51151,11 @@
       <c r="X509">
         <v>517</v>
       </c>
-    </row>
-    <row r="510" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y509">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>3272</v>
       </c>
@@ -49676,8 +51228,11 @@
       <c r="X510">
         <v>517</v>
       </c>
-    </row>
-    <row r="511" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y510">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>3277</v>
       </c>
@@ -49750,8 +51305,11 @@
       <c r="X511">
         <v>465</v>
       </c>
-    </row>
-    <row r="512" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y511">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>3281</v>
       </c>
@@ -49824,8 +51382,11 @@
       <c r="X512">
         <v>517</v>
       </c>
-    </row>
-    <row r="513" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y512">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>3287</v>
       </c>
@@ -49898,8 +51459,11 @@
       <c r="X513">
         <v>517</v>
       </c>
-    </row>
-    <row r="514" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y513">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>3292</v>
       </c>
@@ -49972,8 +51536,11 @@
       <c r="X514">
         <v>517</v>
       </c>
-    </row>
-    <row r="515" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y514">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>3298</v>
       </c>
@@ -50046,8 +51613,11 @@
       <c r="X515">
         <v>465</v>
       </c>
-    </row>
-    <row r="516" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y515">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>3303</v>
       </c>
@@ -50120,8 +51690,11 @@
       <c r="X516">
         <v>517</v>
       </c>
-    </row>
-    <row r="517" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y516">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>3310</v>
       </c>
@@ -50194,8 +51767,11 @@
       <c r="X517">
         <v>517</v>
       </c>
-    </row>
-    <row r="518" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y517">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>3315</v>
       </c>
@@ -50268,8 +51844,11 @@
       <c r="X518">
         <v>517</v>
       </c>
-    </row>
-    <row r="519" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y518">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>3321</v>
       </c>
@@ -50342,8 +51921,11 @@
       <c r="X519">
         <v>517</v>
       </c>
-    </row>
-    <row r="520" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y519">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>3327</v>
       </c>
@@ -50416,8 +51998,11 @@
       <c r="X520">
         <v>465</v>
       </c>
-    </row>
-    <row r="521" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y520">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>3334</v>
       </c>
@@ -50490,8 +52075,11 @@
       <c r="X521">
         <v>431</v>
       </c>
-    </row>
-    <row r="522" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y521">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>3338</v>
       </c>
@@ -50564,8 +52152,11 @@
       <c r="X522">
         <v>404</v>
       </c>
-    </row>
-    <row r="523" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y522">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>3344</v>
       </c>
@@ -50638,8 +52229,11 @@
       <c r="X523">
         <v>517</v>
       </c>
-    </row>
-    <row r="524" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y523">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>3348</v>
       </c>
@@ -50712,8 +52306,11 @@
       <c r="X524">
         <v>517</v>
       </c>
-    </row>
-    <row r="525" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y524">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>3354</v>
       </c>
@@ -50786,8 +52383,11 @@
       <c r="X525">
         <v>517</v>
       </c>
-    </row>
-    <row r="526" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y525">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>3359</v>
       </c>
@@ -50860,8 +52460,11 @@
       <c r="X526">
         <v>517</v>
       </c>
-    </row>
-    <row r="527" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y526">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>3366</v>
       </c>
@@ -50934,8 +52537,11 @@
       <c r="X527">
         <v>517</v>
       </c>
-    </row>
-    <row r="528" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y527">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>3370</v>
       </c>
@@ -51008,8 +52614,11 @@
       <c r="X528">
         <v>465</v>
       </c>
-    </row>
-    <row r="529" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y528">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>3376</v>
       </c>
@@ -51082,8 +52691,11 @@
       <c r="X529">
         <v>517</v>
       </c>
-    </row>
-    <row r="530" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y529">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>3381</v>
       </c>
@@ -51156,8 +52768,11 @@
       <c r="X530">
         <v>517</v>
       </c>
-    </row>
-    <row r="531" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y530">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>3386</v>
       </c>
@@ -51230,8 +52845,11 @@
       <c r="X531">
         <v>465</v>
       </c>
-    </row>
-    <row r="532" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y531">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>3391</v>
       </c>
@@ -51304,8 +52922,11 @@
       <c r="X532">
         <v>465</v>
       </c>
-    </row>
-    <row r="533" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y532">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>3395</v>
       </c>
@@ -51378,8 +52999,11 @@
       <c r="X533">
         <v>465</v>
       </c>
-    </row>
-    <row r="534" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y533">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>3401</v>
       </c>
@@ -51452,8 +53076,11 @@
       <c r="X534">
         <v>465</v>
       </c>
-    </row>
-    <row r="535" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y534">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>3406</v>
       </c>
@@ -51526,8 +53153,11 @@
       <c r="X535">
         <v>517</v>
       </c>
-    </row>
-    <row r="536" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y535">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>3411</v>
       </c>
@@ -51600,8 +53230,11 @@
       <c r="X536">
         <v>465</v>
       </c>
-    </row>
-    <row r="537" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y536">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>3416</v>
       </c>
@@ -51674,8 +53307,11 @@
       <c r="X537">
         <v>589</v>
       </c>
-    </row>
-    <row r="538" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y537">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>3420</v>
       </c>
@@ -51748,8 +53384,11 @@
       <c r="X538">
         <v>465</v>
       </c>
-    </row>
-    <row r="539" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y538">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>3424</v>
       </c>
@@ -51822,8 +53461,11 @@
       <c r="X539">
         <v>589</v>
       </c>
-    </row>
-    <row r="540" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y539">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>3429</v>
       </c>
@@ -51896,8 +53538,11 @@
       <c r="X540">
         <v>517</v>
       </c>
-    </row>
-    <row r="541" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y540">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>3434</v>
       </c>
@@ -51970,8 +53615,11 @@
       <c r="X541">
         <v>589</v>
       </c>
-    </row>
-    <row r="542" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y541">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>3439</v>
       </c>
@@ -52044,8 +53692,11 @@
       <c r="X542">
         <v>517</v>
       </c>
-    </row>
-    <row r="543" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y542">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>3443</v>
       </c>
@@ -52118,8 +53769,11 @@
       <c r="X543">
         <v>589</v>
       </c>
-    </row>
-    <row r="544" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y543">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>3449</v>
       </c>
@@ -52192,8 +53846,11 @@
       <c r="X544">
         <v>465</v>
       </c>
-    </row>
-    <row r="545" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y544">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>3456</v>
       </c>
@@ -52266,8 +53923,11 @@
       <c r="X545">
         <v>589</v>
       </c>
-    </row>
-    <row r="546" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y545">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>3461</v>
       </c>
@@ -52340,8 +54000,11 @@
       <c r="X546">
         <v>431</v>
       </c>
-    </row>
-    <row r="547" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y546">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>3467</v>
       </c>
@@ -52414,8 +54077,11 @@
       <c r="X547">
         <v>589</v>
       </c>
-    </row>
-    <row r="548" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y547">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>3471</v>
       </c>
@@ -52488,8 +54154,11 @@
       <c r="X548">
         <v>465</v>
       </c>
-    </row>
-    <row r="549" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y548">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>3475</v>
       </c>
@@ -52562,8 +54231,11 @@
       <c r="X549">
         <v>465</v>
       </c>
-    </row>
-    <row r="550" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y549">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>3481</v>
       </c>
@@ -52636,8 +54308,11 @@
       <c r="X550">
         <v>589</v>
       </c>
-    </row>
-    <row r="551" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y550">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>3487</v>
       </c>
@@ -52710,8 +54385,11 @@
       <c r="X551">
         <v>589</v>
       </c>
-    </row>
-    <row r="552" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y551">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>3494</v>
       </c>
@@ -52784,8 +54462,11 @@
       <c r="X552">
         <v>517</v>
       </c>
-    </row>
-    <row r="553" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y552">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>3499</v>
       </c>
@@ -52858,8 +54539,11 @@
       <c r="X553">
         <v>465</v>
       </c>
-    </row>
-    <row r="554" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y553">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>3505</v>
       </c>
@@ -52932,8 +54616,11 @@
       <c r="X554">
         <v>465</v>
       </c>
-    </row>
-    <row r="555" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y554">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>3509</v>
       </c>
@@ -53006,8 +54693,11 @@
       <c r="X555">
         <v>431</v>
       </c>
-    </row>
-    <row r="556" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y555">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>3513</v>
       </c>
@@ -53080,8 +54770,11 @@
       <c r="X556">
         <v>589</v>
       </c>
-    </row>
-    <row r="557" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y556">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>3518</v>
       </c>
@@ -53154,8 +54847,11 @@
       <c r="X557">
         <v>517</v>
       </c>
-    </row>
-    <row r="558" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y557">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>3522</v>
       </c>
@@ -53228,8 +54924,11 @@
       <c r="X558">
         <v>431</v>
       </c>
-    </row>
-    <row r="559" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y558">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>3526</v>
       </c>
@@ -53302,8 +55001,11 @@
       <c r="X559">
         <v>517</v>
       </c>
-    </row>
-    <row r="560" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y559">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>3530</v>
       </c>
@@ -53376,8 +55078,11 @@
       <c r="X560">
         <v>517</v>
       </c>
-    </row>
-    <row r="561" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y560">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>3534</v>
       </c>
@@ -53450,8 +55155,11 @@
       <c r="X561">
         <v>517</v>
       </c>
-    </row>
-    <row r="562" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y561">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>3540</v>
       </c>
@@ -53524,8 +55232,11 @@
       <c r="X562">
         <v>517</v>
       </c>
-    </row>
-    <row r="563" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y562">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>3545</v>
       </c>
@@ -53598,8 +55309,11 @@
       <c r="X563">
         <v>517</v>
       </c>
-    </row>
-    <row r="564" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y563">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>3550</v>
       </c>
@@ -53672,8 +55386,11 @@
       <c r="X564">
         <v>517</v>
       </c>
-    </row>
-    <row r="565" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y564">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>3555</v>
       </c>
@@ -53746,8 +55463,11 @@
       <c r="X565">
         <v>517</v>
       </c>
-    </row>
-    <row r="566" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y565">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>3562</v>
       </c>
@@ -53820,8 +55540,11 @@
       <c r="X566">
         <v>517</v>
       </c>
-    </row>
-    <row r="567" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y566">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>3566</v>
       </c>
@@ -53894,8 +55617,11 @@
       <c r="X567">
         <v>517</v>
       </c>
-    </row>
-    <row r="568" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y567">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>3573</v>
       </c>
@@ -53968,8 +55694,11 @@
       <c r="X568">
         <v>517</v>
       </c>
-    </row>
-    <row r="569" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y568">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>3578</v>
       </c>
@@ -54042,8 +55771,11 @@
       <c r="X569">
         <v>517</v>
       </c>
-    </row>
-    <row r="570" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y569">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>3584</v>
       </c>
@@ -54116,8 +55848,11 @@
       <c r="X570">
         <v>517</v>
       </c>
-    </row>
-    <row r="571" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y570">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>3590</v>
       </c>
@@ -54190,8 +55925,11 @@
       <c r="X571">
         <v>517</v>
       </c>
-    </row>
-    <row r="572" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y571">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>3597</v>
       </c>
@@ -54264,8 +56002,11 @@
       <c r="X572">
         <v>517</v>
       </c>
-    </row>
-    <row r="573" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y572">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>3601</v>
       </c>
@@ -54338,8 +56079,11 @@
       <c r="X573">
         <v>517</v>
       </c>
-    </row>
-    <row r="574" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y573">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>3606</v>
       </c>
@@ -54412,8 +56156,11 @@
       <c r="X574">
         <v>517</v>
       </c>
-    </row>
-    <row r="575" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y574">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>3613</v>
       </c>
@@ -54486,8 +56233,11 @@
       <c r="X575">
         <v>517</v>
       </c>
-    </row>
-    <row r="576" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y575">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>3617</v>
       </c>
@@ -54560,8 +56310,11 @@
       <c r="X576">
         <v>589</v>
       </c>
-    </row>
-    <row r="577" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y576">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>3623</v>
       </c>
@@ -54634,8 +56387,11 @@
       <c r="X577">
         <v>517</v>
       </c>
-    </row>
-    <row r="578" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y577">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>3628</v>
       </c>
@@ -54708,8 +56464,11 @@
       <c r="X578">
         <v>517</v>
       </c>
-    </row>
-    <row r="579" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y578">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>3633</v>
       </c>
@@ -54782,8 +56541,11 @@
       <c r="X579">
         <v>517</v>
       </c>
-    </row>
-    <row r="580" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y579">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>3637</v>
       </c>
@@ -54856,8 +56618,11 @@
       <c r="X580">
         <v>431</v>
       </c>
-    </row>
-    <row r="581" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y580">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>3642</v>
       </c>
@@ -54930,8 +56695,11 @@
       <c r="X581">
         <v>465</v>
       </c>
-    </row>
-    <row r="582" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y581">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>3647</v>
       </c>
@@ -55004,8 +56772,11 @@
       <c r="X582">
         <v>517</v>
       </c>
-    </row>
-    <row r="583" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y582">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>3652</v>
       </c>
@@ -55078,8 +56849,11 @@
       <c r="X583">
         <v>517</v>
       </c>
-    </row>
-    <row r="584" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y583">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>3656</v>
       </c>
@@ -55152,8 +56926,11 @@
       <c r="X584">
         <v>589</v>
       </c>
-    </row>
-    <row r="585" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y584">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>3661</v>
       </c>
@@ -55226,8 +57003,11 @@
       <c r="X585">
         <v>465</v>
       </c>
-    </row>
-    <row r="586" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y585">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>3666</v>
       </c>
@@ -55300,8 +57080,11 @@
       <c r="X586">
         <v>517</v>
       </c>
-    </row>
-    <row r="587" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y586">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>3670</v>
       </c>
@@ -55374,8 +57157,11 @@
       <c r="X587">
         <v>589</v>
       </c>
-    </row>
-    <row r="588" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y587">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>3675</v>
       </c>
@@ -55448,8 +57234,11 @@
       <c r="X588">
         <v>589</v>
       </c>
-    </row>
-    <row r="589" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y588">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>3680</v>
       </c>
@@ -55522,8 +57311,11 @@
       <c r="X589">
         <v>589</v>
       </c>
-    </row>
-    <row r="590" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y589">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>3685</v>
       </c>
@@ -55596,8 +57388,11 @@
       <c r="X590">
         <v>589</v>
       </c>
-    </row>
-    <row r="591" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y590">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>3690</v>
       </c>
@@ -55670,8 +57465,11 @@
       <c r="X591">
         <v>589</v>
       </c>
-    </row>
-    <row r="592" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y591">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>3695</v>
       </c>
@@ -55744,8 +57542,11 @@
       <c r="X592">
         <v>589</v>
       </c>
-    </row>
-    <row r="593" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y592">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>3699</v>
       </c>
@@ -55818,8 +57619,11 @@
       <c r="X593">
         <v>589</v>
       </c>
-    </row>
-    <row r="594" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y593">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>3706</v>
       </c>
@@ -55892,8 +57696,11 @@
       <c r="X594">
         <v>589</v>
       </c>
-    </row>
-    <row r="595" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y594">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>3711</v>
       </c>
@@ -55966,8 +57773,11 @@
       <c r="X595">
         <v>465</v>
       </c>
-    </row>
-    <row r="596" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y595">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>3717</v>
       </c>
@@ -56040,8 +57850,11 @@
       <c r="X596">
         <v>465</v>
       </c>
-    </row>
-    <row r="597" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y596">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>3723</v>
       </c>
@@ -56114,8 +57927,11 @@
       <c r="X597">
         <v>465</v>
       </c>
-    </row>
-    <row r="598" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y597">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>3727</v>
       </c>
@@ -56188,8 +58004,11 @@
       <c r="X598">
         <v>517</v>
       </c>
-    </row>
-    <row r="599" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y598">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>3731</v>
       </c>
@@ -56262,8 +58081,11 @@
       <c r="X599">
         <v>517</v>
       </c>
-    </row>
-    <row r="600" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y599">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>3735</v>
       </c>
@@ -56336,8 +58158,11 @@
       <c r="X600">
         <v>517</v>
       </c>
-    </row>
-    <row r="601" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y600">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>3739</v>
       </c>
@@ -56410,8 +58235,11 @@
       <c r="X601">
         <v>517</v>
       </c>
-    </row>
-    <row r="602" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y601">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>3745</v>
       </c>
@@ -56484,8 +58312,11 @@
       <c r="X602">
         <v>517</v>
       </c>
-    </row>
-    <row r="603" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y602">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>3749</v>
       </c>
@@ -56558,8 +58389,11 @@
       <c r="X603">
         <v>465</v>
       </c>
-    </row>
-    <row r="604" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y603">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>3754</v>
       </c>
@@ -56632,8 +58466,11 @@
       <c r="X604">
         <v>517</v>
       </c>
-    </row>
-    <row r="605" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y604">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>3760</v>
       </c>
@@ -56706,8 +58543,11 @@
       <c r="X605">
         <v>465</v>
       </c>
-    </row>
-    <row r="606" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y605">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>3765</v>
       </c>
@@ -56780,8 +58620,11 @@
       <c r="X606">
         <v>517</v>
       </c>
-    </row>
-    <row r="607" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y606">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>3769</v>
       </c>
@@ -56854,8 +58697,11 @@
       <c r="X607">
         <v>517</v>
       </c>
-    </row>
-    <row r="608" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y607">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>3773</v>
       </c>
@@ -56928,8 +58774,11 @@
       <c r="X608">
         <v>517</v>
       </c>
-    </row>
-    <row r="609" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y608">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>3778</v>
       </c>
@@ -57002,8 +58851,11 @@
       <c r="X609">
         <v>517</v>
       </c>
-    </row>
-    <row r="610" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y609">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>3782</v>
       </c>
@@ -57076,8 +58928,11 @@
       <c r="X610">
         <v>589</v>
       </c>
-    </row>
-    <row r="611" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y610">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>3786</v>
       </c>
@@ -57150,8 +59005,11 @@
       <c r="X611">
         <v>589</v>
       </c>
-    </row>
-    <row r="612" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y611">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>3792</v>
       </c>
@@ -57224,8 +59082,11 @@
       <c r="X612">
         <v>589</v>
       </c>
-    </row>
-    <row r="613" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y612">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>3797</v>
       </c>
@@ -57298,8 +59159,11 @@
       <c r="X613">
         <v>589</v>
       </c>
-    </row>
-    <row r="614" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y613">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>3801</v>
       </c>
@@ -57372,8 +59236,11 @@
       <c r="X614">
         <v>589</v>
       </c>
-    </row>
-    <row r="615" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y614">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>3805</v>
       </c>
@@ -57446,8 +59313,11 @@
       <c r="X615">
         <v>589</v>
       </c>
-    </row>
-    <row r="616" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y615">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>3809</v>
       </c>
@@ -57520,8 +59390,11 @@
       <c r="X616">
         <v>589</v>
       </c>
-    </row>
-    <row r="617" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y616">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>3813</v>
       </c>
@@ -57594,8 +59467,11 @@
       <c r="X617">
         <v>589</v>
       </c>
-    </row>
-    <row r="618" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y617">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>3817</v>
       </c>
@@ -57668,8 +59544,11 @@
       <c r="X618">
         <v>622</v>
       </c>
-    </row>
-    <row r="619" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y618">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>3821</v>
       </c>
@@ -57742,8 +59621,11 @@
       <c r="X619">
         <v>589</v>
       </c>
-    </row>
-    <row r="620" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y619">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>3825</v>
       </c>
@@ -57816,8 +59698,11 @@
       <c r="X620">
         <v>589</v>
       </c>
-    </row>
-    <row r="621" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y620">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>3829</v>
       </c>
@@ -57890,8 +59775,11 @@
       <c r="X621">
         <v>589</v>
       </c>
-    </row>
-    <row r="622" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y621">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>3833</v>
       </c>
@@ -57964,8 +59852,11 @@
       <c r="X622">
         <v>589</v>
       </c>
-    </row>
-    <row r="623" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y622">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>3837</v>
       </c>
@@ -58037,6 +59928,9 @@
       </c>
       <c r="X623">
         <v>589</v>
+      </c>
+      <c r="Y623">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
